--- a/数据整理/stocks/其他/NKE-耐克公司.xlsx
+++ b/数据整理/stocks/其他/NKE-耐克公司.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.77</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/NKE-耐克公司.xlsx
+++ b/数据整理/stocks/其他/NKE-耐克公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -541,188 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1478</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005676</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1331</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000593</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1331</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>118002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1331</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +815,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +855,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +893,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.77</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/其他/NKE-耐克公司.xlsx
+++ b/数据整理/stocks/其他/NKE-耐克公司.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -520,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1399</t>
+          <t>0.1772</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -609,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1399</t>
+          <t>0.1440</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1399</t>
+          <t>0.1440</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -685,36 +702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1285</t>
+          <t>0.1440</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -728,31 +745,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1030</t>
+          <t>0.1313</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -766,31 +783,183 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -855,6 +1024,290 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>162415</t>
         </is>
       </c>
